--- a/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +48,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-10 (2)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-11-02 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-16 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-02</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -671,9 +671,9 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -815,19 +815,19 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>573634</v>
+        <v>475987</v>
       </c>
       <c r="E12" s="15">
-        <v>475987</v>
+        <v>1868143</v>
       </c>
       <c r="F12" s="15">
-        <v>1868143</v>
+        <v>415393</v>
       </c>
       <c r="G12" s="15">
-        <v>415393</v>
+        <v>283975</v>
       </c>
       <c r="H12" s="15">
-        <v>547727</v>
+        <v>678035</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -836,19 +836,19 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>315917</v>
+        <v>315189</v>
       </c>
       <c r="E13" s="11">
-        <v>315189</v>
+        <v>261339</v>
       </c>
       <c r="F13" s="11">
-        <v>261339</v>
+        <v>307450</v>
       </c>
       <c r="G13" s="11">
-        <v>307450</v>
+        <v>272224</v>
       </c>
       <c r="H13" s="11">
-        <v>271710</v>
+        <v>255106</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -857,19 +857,19 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>9983028</v>
+        <v>9828553</v>
       </c>
       <c r="E14" s="15">
-        <v>9828553</v>
+        <v>11169725</v>
       </c>
       <c r="F14" s="15">
-        <v>11169725</v>
+        <v>9669726</v>
       </c>
       <c r="G14" s="15">
-        <v>9669726</v>
+        <v>12498860</v>
       </c>
       <c r="H14" s="15">
-        <v>12463350</v>
+        <v>14783315</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -878,19 +878,19 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>5310052</v>
+        <v>4991497</v>
       </c>
       <c r="E15" s="11">
-        <v>4991497</v>
+        <v>4608522</v>
       </c>
       <c r="F15" s="11">
-        <v>4608522</v>
+        <v>5278560</v>
       </c>
       <c r="G15" s="11">
-        <v>5278560</v>
+        <v>5337696</v>
       </c>
       <c r="H15" s="11">
-        <v>5328825</v>
+        <v>6348304</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -899,19 +899,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1109607</v>
+        <v>1224791</v>
       </c>
       <c r="E16" s="15">
-        <v>1224791</v>
+        <v>1409203</v>
       </c>
       <c r="F16" s="15">
-        <v>1409203</v>
+        <v>1598580</v>
       </c>
       <c r="G16" s="15">
-        <v>1598580</v>
+        <v>1777074</v>
       </c>
       <c r="H16" s="15">
-        <v>2307645</v>
+        <v>2740270</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -941,19 +941,19 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>17292238</v>
+        <v>16836017</v>
       </c>
       <c r="E18" s="17">
-        <v>16836017</v>
+        <v>19316932</v>
       </c>
       <c r="F18" s="17">
-        <v>19316932</v>
+        <v>17269709</v>
       </c>
       <c r="G18" s="17">
-        <v>17269709</v>
+        <v>20169829</v>
       </c>
       <c r="H18" s="17">
-        <v>20919257</v>
+        <v>24805030</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -983,19 +983,19 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1147098</v>
+        <v>528178</v>
       </c>
       <c r="E20" s="15">
         <v>528178</v>
       </c>
       <c r="F20" s="15">
-        <v>1146909</v>
+        <v>2406699</v>
       </c>
       <c r="G20" s="15">
-        <v>2406699</v>
+        <v>3678659</v>
       </c>
       <c r="H20" s="15">
-        <v>3542014</v>
+        <v>2406698</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>662825</v>
       </c>
       <c r="G21" s="11">
-        <v>662825</v>
+        <v>866660</v>
       </c>
       <c r="H21" s="11">
         <v>866660</v>
@@ -1025,19 +1025,19 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>2650940</v>
+        <v>2732480</v>
       </c>
       <c r="E22" s="15">
-        <v>2732480</v>
+        <v>3300378</v>
       </c>
       <c r="F22" s="15">
-        <v>3300378</v>
+        <v>3279883</v>
       </c>
       <c r="G22" s="15">
-        <v>3279883</v>
+        <v>3292447</v>
       </c>
       <c r="H22" s="15">
-        <v>3300965</v>
+        <v>3319803</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1046,19 +1046,19 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>28795</v>
+        <v>28361</v>
       </c>
       <c r="E23" s="11">
-        <v>28361</v>
+        <v>27944</v>
       </c>
       <c r="F23" s="11">
-        <v>27944</v>
+        <v>28225</v>
       </c>
       <c r="G23" s="11">
-        <v>28225</v>
+        <v>27690</v>
       </c>
       <c r="H23" s="11">
-        <v>27690</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1109,19 +1109,19 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>3826833</v>
+        <v>3289019</v>
       </c>
       <c r="E26" s="17">
-        <v>3289019</v>
+        <v>3856500</v>
       </c>
       <c r="F26" s="17">
-        <v>4475231</v>
+        <v>6377632</v>
       </c>
       <c r="G26" s="17">
-        <v>6377632</v>
+        <v>7865456</v>
       </c>
       <c r="H26" s="17">
-        <v>7737329</v>
+        <v>6619861</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1130,19 +1130,19 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="E27" s="19">
-        <v>20125036</v>
+        <v>23173432</v>
       </c>
       <c r="F27" s="19">
-        <v>23792163</v>
+        <v>23647341</v>
       </c>
       <c r="G27" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="H27" s="19">
-        <v>28656586</v>
+        <v>31424891</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>5341123</v>
+        <v>4426796</v>
       </c>
       <c r="E29" s="15">
-        <v>4426796</v>
+        <v>5072864</v>
       </c>
       <c r="F29" s="15">
-        <v>5072864</v>
+        <v>5059166</v>
       </c>
       <c r="G29" s="15">
-        <v>5059166</v>
+        <v>6601920</v>
       </c>
       <c r="H29" s="15">
-        <v>7066359</v>
+        <v>8962503</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>214282</v>
+        <v>114820</v>
       </c>
       <c r="E32" s="11">
-        <v>114820</v>
+        <v>102254</v>
       </c>
       <c r="F32" s="11">
-        <v>102254</v>
+        <v>19694</v>
       </c>
       <c r="G32" s="11">
-        <v>19694</v>
+        <v>29649</v>
       </c>
       <c r="H32" s="11">
-        <v>66323</v>
+        <v>128979</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2027707</v>
+        <v>1991159</v>
       </c>
       <c r="E33" s="15">
-        <v>1991159</v>
+        <v>311296</v>
       </c>
       <c r="F33" s="15">
-        <v>311296</v>
+        <v>309669</v>
       </c>
       <c r="G33" s="15">
-        <v>309669</v>
+        <v>2047674</v>
       </c>
       <c r="H33" s="15">
-        <v>2047957</v>
+        <v>1779005</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1267,19 +1267,19 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>7141873</v>
+        <v>7627666</v>
       </c>
       <c r="E34" s="11">
-        <v>7627666</v>
+        <v>8302390</v>
       </c>
       <c r="F34" s="11">
-        <v>8302390</v>
+        <v>8482215</v>
       </c>
       <c r="G34" s="11">
-        <v>8482215</v>
+        <v>8738322</v>
       </c>
       <c r="H34" s="11">
-        <v>8871157</v>
+        <v>9173922</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1288,19 +1288,19 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>334026</v>
+        <v>198741</v>
       </c>
       <c r="E35" s="15">
-        <v>198741</v>
+        <v>222012</v>
       </c>
       <c r="F35" s="15">
-        <v>222012</v>
+        <v>366336</v>
       </c>
       <c r="G35" s="15">
-        <v>366336</v>
+        <v>406685</v>
       </c>
       <c r="H35" s="15">
-        <v>763726</v>
+        <v>1029437</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>15059011</v>
+        <v>14359182</v>
       </c>
       <c r="E37" s="17">
-        <v>14359182</v>
+        <v>14010816</v>
       </c>
       <c r="F37" s="17">
-        <v>14010816</v>
+        <v>14237080</v>
       </c>
       <c r="G37" s="17">
-        <v>14237080</v>
+        <v>17824250</v>
       </c>
       <c r="H37" s="17">
-        <v>18815522</v>
+        <v>21073846</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>2361111</v>
       </c>
       <c r="F40" s="11">
-        <v>2361111</v>
+        <v>2319444</v>
       </c>
       <c r="G40" s="11">
-        <v>2319444</v>
+        <v>2324523</v>
       </c>
       <c r="H40" s="11">
-        <v>2324523</v>
+        <v>2275844</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="E41" s="15">
-        <v>134304</v>
+        <v>139607</v>
       </c>
       <c r="F41" s="15">
-        <v>139607</v>
+        <v>224323</v>
       </c>
       <c r="G41" s="15">
-        <v>224323</v>
+        <v>225629</v>
       </c>
       <c r="H41" s="15">
-        <v>225629</v>
+        <v>228559</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1435,19 +1435,19 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="E42" s="19">
-        <v>134304</v>
+        <v>2500718</v>
       </c>
       <c r="F42" s="19">
-        <v>2500718</v>
+        <v>2543767</v>
       </c>
       <c r="G42" s="19">
-        <v>2543767</v>
+        <v>2550152</v>
       </c>
       <c r="H42" s="19">
-        <v>2550152</v>
+        <v>2504403</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>15188815</v>
+        <v>14493486</v>
       </c>
       <c r="E43" s="17">
-        <v>14493486</v>
+        <v>16511534</v>
       </c>
       <c r="F43" s="17">
-        <v>16511534</v>
+        <v>16780847</v>
       </c>
       <c r="G43" s="17">
-        <v>16780847</v>
+        <v>20374402</v>
       </c>
       <c r="H43" s="17">
-        <v>21365674</v>
+        <v>23578249</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>1000000</v>
       </c>
       <c r="E45" s="15">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F45" s="15">
         <v>2000000</v>
@@ -1530,10 +1530,10 @@
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>981265</v>
+        <v>981288</v>
       </c>
       <c r="E47" s="15">
-        <v>981288</v>
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>100000</v>
       </c>
       <c r="E50" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F50" s="11">
         <v>200000</v>
@@ -1719,19 +1719,19 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>3848991</v>
+        <v>3550262</v>
       </c>
       <c r="E56" s="11">
-        <v>3550262</v>
+        <v>4461898</v>
       </c>
       <c r="F56" s="11">
-        <v>5080629</v>
+        <v>4666494</v>
       </c>
       <c r="G56" s="11">
-        <v>4666494</v>
+        <v>5460883</v>
       </c>
       <c r="H56" s="11">
-        <v>5090912</v>
+        <v>5646642</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1740,19 +1740,19 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>5930256</v>
+        <v>5631550</v>
       </c>
       <c r="E57" s="17">
-        <v>5631550</v>
+        <v>6661898</v>
       </c>
       <c r="F57" s="17">
-        <v>7280629</v>
+        <v>6866494</v>
       </c>
       <c r="G57" s="17">
-        <v>6866494</v>
+        <v>7660883</v>
       </c>
       <c r="H57" s="17">
-        <v>7290912</v>
+        <v>7846642</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="E58" s="19">
-        <v>20125036</v>
+        <v>23173432</v>
       </c>
       <c r="F58" s="19">
-        <v>23792163</v>
+        <v>23647341</v>
       </c>
       <c r="G58" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="H58" s="19">
-        <v>28656586</v>
+        <v>31424891</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">

--- a/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25885C90-3BD5-416F-A1F6-2B369FBE37A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-10 (2)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-11-02 (7)</t>
   </si>
   <si>
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-16 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-02</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +720,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +833,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,112 +844,112 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>573634</v>
+        <v>475987</v>
       </c>
       <c r="E12" s="15">
-        <v>475987</v>
+        <v>1868143</v>
       </c>
       <c r="F12" s="15">
-        <v>1868143</v>
+        <v>415393</v>
       </c>
       <c r="G12" s="15">
-        <v>415393</v>
+        <v>283975</v>
       </c>
       <c r="H12" s="15">
-        <v>547727</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>678035</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>315917</v>
+        <v>315189</v>
       </c>
       <c r="E13" s="11">
-        <v>315189</v>
+        <v>261339</v>
       </c>
       <c r="F13" s="11">
-        <v>261339</v>
+        <v>307450</v>
       </c>
       <c r="G13" s="11">
-        <v>307450</v>
+        <v>272224</v>
       </c>
       <c r="H13" s="11">
-        <v>271710</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>255106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>9983028</v>
+        <v>9828553</v>
       </c>
       <c r="E14" s="15">
-        <v>9828553</v>
+        <v>11169725</v>
       </c>
       <c r="F14" s="15">
-        <v>11169725</v>
+        <v>9669726</v>
       </c>
       <c r="G14" s="15">
-        <v>9669726</v>
+        <v>12498860</v>
       </c>
       <c r="H14" s="15">
-        <v>12463350</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14783315</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>5310052</v>
+        <v>4991497</v>
       </c>
       <c r="E15" s="11">
-        <v>4991497</v>
+        <v>4608522</v>
       </c>
       <c r="F15" s="11">
-        <v>4608522</v>
+        <v>5278560</v>
       </c>
       <c r="G15" s="11">
-        <v>5278560</v>
+        <v>5337696</v>
       </c>
       <c r="H15" s="11">
-        <v>5328825</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6348304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1109607</v>
+        <v>1224791</v>
       </c>
       <c r="E16" s="15">
-        <v>1224791</v>
+        <v>1409203</v>
       </c>
       <c r="F16" s="15">
-        <v>1409203</v>
+        <v>1598580</v>
       </c>
       <c r="G16" s="15">
-        <v>1598580</v>
+        <v>1777074</v>
       </c>
       <c r="H16" s="15">
-        <v>2307645</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2740270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -935,28 +970,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>17292238</v>
+        <v>16836017</v>
       </c>
       <c r="E18" s="17">
-        <v>16836017</v>
+        <v>19316932</v>
       </c>
       <c r="F18" s="17">
-        <v>19316932</v>
+        <v>17269709</v>
       </c>
       <c r="G18" s="17">
-        <v>17269709</v>
+        <v>20169829</v>
       </c>
       <c r="H18" s="17">
-        <v>20919257</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>24805030</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -977,28 +1012,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1147098</v>
+        <v>528178</v>
       </c>
       <c r="E20" s="15">
         <v>528178</v>
       </c>
       <c r="F20" s="15">
-        <v>1146909</v>
+        <v>2406699</v>
       </c>
       <c r="G20" s="15">
-        <v>2406699</v>
+        <v>3678659</v>
       </c>
       <c r="H20" s="15">
-        <v>3542014</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2406698</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1010,58 +1045,58 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>662825</v>
       </c>
       <c r="G21" s="11">
-        <v>662825</v>
+        <v>866660</v>
       </c>
       <c r="H21" s="11">
         <v>866660</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>2650940</v>
+        <v>2732480</v>
       </c>
       <c r="E22" s="15">
-        <v>2732480</v>
+        <v>3300378</v>
       </c>
       <c r="F22" s="15">
-        <v>3300378</v>
+        <v>3279883</v>
       </c>
       <c r="G22" s="15">
-        <v>3279883</v>
+        <v>3292447</v>
       </c>
       <c r="H22" s="15">
-        <v>3300965</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3319803</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>28795</v>
+        <v>28361</v>
       </c>
       <c r="E23" s="11">
-        <v>28361</v>
+        <v>27944</v>
       </c>
       <c r="F23" s="11">
-        <v>27944</v>
+        <v>28225</v>
       </c>
       <c r="G23" s="11">
-        <v>28225</v>
+        <v>27690</v>
       </c>
       <c r="H23" s="11">
-        <v>27690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1103,49 +1138,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>3826833</v>
+        <v>3289019</v>
       </c>
       <c r="E26" s="17">
-        <v>3289019</v>
+        <v>3856500</v>
       </c>
       <c r="F26" s="17">
-        <v>4475231</v>
+        <v>6377632</v>
       </c>
       <c r="G26" s="17">
-        <v>6377632</v>
+        <v>7865456</v>
       </c>
       <c r="H26" s="17">
-        <v>7737329</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6619861</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="E27" s="19">
-        <v>20125036</v>
+        <v>23173432</v>
       </c>
       <c r="F27" s="19">
-        <v>23792163</v>
+        <v>23647341</v>
       </c>
       <c r="G27" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="H27" s="19">
-        <v>28656586</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31424891</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1156,28 +1191,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>5341123</v>
+        <v>4426796</v>
       </c>
       <c r="E29" s="15">
-        <v>4426796</v>
+        <v>5072864</v>
       </c>
       <c r="F29" s="15">
-        <v>5072864</v>
+        <v>5059166</v>
       </c>
       <c r="G29" s="15">
-        <v>5059166</v>
+        <v>6601920</v>
       </c>
       <c r="H29" s="15">
-        <v>7066359</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8962503</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1219,91 +1254,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>214282</v>
+        <v>114820</v>
       </c>
       <c r="E32" s="11">
-        <v>114820</v>
+        <v>102254</v>
       </c>
       <c r="F32" s="11">
-        <v>102254</v>
+        <v>19694</v>
       </c>
       <c r="G32" s="11">
-        <v>19694</v>
+        <v>29649</v>
       </c>
       <c r="H32" s="11">
-        <v>66323</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>128979</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2027707</v>
+        <v>1991159</v>
       </c>
       <c r="E33" s="15">
-        <v>1991159</v>
+        <v>311296</v>
       </c>
       <c r="F33" s="15">
-        <v>311296</v>
+        <v>309669</v>
       </c>
       <c r="G33" s="15">
-        <v>309669</v>
+        <v>2047674</v>
       </c>
       <c r="H33" s="15">
-        <v>2047957</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1779005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>7141873</v>
+        <v>7627666</v>
       </c>
       <c r="E34" s="11">
-        <v>7627666</v>
+        <v>8302390</v>
       </c>
       <c r="F34" s="11">
-        <v>8302390</v>
+        <v>8482215</v>
       </c>
       <c r="G34" s="11">
-        <v>8482215</v>
+        <v>8738322</v>
       </c>
       <c r="H34" s="11">
-        <v>8871157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9173922</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>334026</v>
+        <v>198741</v>
       </c>
       <c r="E35" s="15">
-        <v>198741</v>
+        <v>222012</v>
       </c>
       <c r="F35" s="15">
-        <v>222012</v>
+        <v>366336</v>
       </c>
       <c r="G35" s="15">
-        <v>366336</v>
+        <v>406685</v>
       </c>
       <c r="H35" s="15">
-        <v>763726</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1029437</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1324,28 +1359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>15059011</v>
+        <v>14359182</v>
       </c>
       <c r="E37" s="17">
-        <v>14359182</v>
+        <v>14010816</v>
       </c>
       <c r="F37" s="17">
-        <v>14010816</v>
+        <v>14237080</v>
       </c>
       <c r="G37" s="17">
-        <v>14237080</v>
+        <v>17824250</v>
       </c>
       <c r="H37" s="17">
-        <v>18815522</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21073846</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1396,82 +1431,82 @@
         <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>2361111</v>
       </c>
       <c r="F40" s="11">
-        <v>2361111</v>
+        <v>2319444</v>
       </c>
       <c r="G40" s="11">
-        <v>2319444</v>
+        <v>2324523</v>
       </c>
       <c r="H40" s="11">
-        <v>2324523</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2275844</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="E41" s="15">
-        <v>134304</v>
+        <v>139607</v>
       </c>
       <c r="F41" s="15">
-        <v>139607</v>
+        <v>224323</v>
       </c>
       <c r="G41" s="15">
-        <v>224323</v>
+        <v>225629</v>
       </c>
       <c r="H41" s="15">
-        <v>225629</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>228559</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="E42" s="19">
-        <v>134304</v>
+        <v>2500718</v>
       </c>
       <c r="F42" s="19">
-        <v>2500718</v>
+        <v>2543767</v>
       </c>
       <c r="G42" s="19">
-        <v>2543767</v>
+        <v>2550152</v>
       </c>
       <c r="H42" s="19">
-        <v>2550152</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2504403</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>15188815</v>
+        <v>14493486</v>
       </c>
       <c r="E43" s="17">
-        <v>14493486</v>
+        <v>16511534</v>
       </c>
       <c r="F43" s="17">
-        <v>16511534</v>
+        <v>16780847</v>
       </c>
       <c r="G43" s="17">
-        <v>16780847</v>
+        <v>20374402</v>
       </c>
       <c r="H43" s="17">
-        <v>21365674</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23578249</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1517,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1526,7 @@
         <v>1000000</v>
       </c>
       <c r="E45" s="15">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F45" s="15">
         <v>2000000</v>
@@ -1503,7 +1538,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,16 +1559,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>981265</v>
+        <v>981288</v>
       </c>
       <c r="E47" s="15">
-        <v>981288</v>
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -1545,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1596,7 +1631,7 @@
         <v>100000</v>
       </c>
       <c r="E50" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F50" s="11">
         <v>200000</v>
@@ -1608,7 +1643,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,70 +1748,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>3848991</v>
+        <v>3550262</v>
       </c>
       <c r="E56" s="11">
-        <v>3550262</v>
+        <v>4461898</v>
       </c>
       <c r="F56" s="11">
-        <v>5080629</v>
+        <v>4666494</v>
       </c>
       <c r="G56" s="11">
-        <v>4666494</v>
+        <v>5460883</v>
       </c>
       <c r="H56" s="11">
-        <v>5090912</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5646642</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>5930256</v>
+        <v>5631550</v>
       </c>
       <c r="E57" s="17">
-        <v>5631550</v>
+        <v>6661898</v>
       </c>
       <c r="F57" s="17">
-        <v>7280629</v>
+        <v>6866494</v>
       </c>
       <c r="G57" s="17">
-        <v>6866494</v>
+        <v>7660883</v>
       </c>
       <c r="H57" s="17">
-        <v>7290912</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7846642</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="E58" s="19">
-        <v>20125036</v>
+        <v>23173432</v>
       </c>
       <c r="F58" s="19">
-        <v>23792163</v>
+        <v>23647341</v>
       </c>
       <c r="G58" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="H58" s="19">
-        <v>28656586</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31424891</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25885C90-3BD5-416F-A1F6-2B369FBE37A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF5CD0-6695-4E6F-8FEF-D51D8D327D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-09-26 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-04-18 (7)</t>
+  </si>
+  <si>
+    <t>1400-05-02</t>
+  </si>
+  <si>
+    <t>1400-09-10 (2)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>225133</v>
+      </c>
+      <c r="E12" s="15">
+        <v>517858</v>
+      </c>
+      <c r="F12" s="15">
+        <v>366420</v>
+      </c>
+      <c r="G12" s="15">
+        <v>286042</v>
+      </c>
+      <c r="H12" s="15">
+        <v>573634</v>
+      </c>
+      <c r="I12" s="15">
         <v>475987</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>1868143</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>415393</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>283975</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>678035</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>446043</v>
+      </c>
+      <c r="E13" s="11">
+        <v>322949</v>
+      </c>
+      <c r="F13" s="11">
+        <v>318609</v>
+      </c>
+      <c r="G13" s="11">
+        <v>352206</v>
+      </c>
+      <c r="H13" s="11">
+        <v>315917</v>
+      </c>
+      <c r="I13" s="11">
         <v>315189</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>261339</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>307450</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>272224</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>255106</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>4454502</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5442111</v>
+      </c>
+      <c r="F14" s="15">
+        <v>8320019</v>
+      </c>
+      <c r="G14" s="15">
+        <v>7313453</v>
+      </c>
+      <c r="H14" s="15">
+        <v>9983028</v>
+      </c>
+      <c r="I14" s="15">
         <v>9828553</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>11169725</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>9669726</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>12498860</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>14783315</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>3501620</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4119965</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5060743</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4923594</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5310052</v>
+      </c>
+      <c r="I15" s="11">
         <v>4991497</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>4608522</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>5278560</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>5337696</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>6348304</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>1281277</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2761925</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1067892</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2265422</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1109607</v>
+      </c>
+      <c r="I16" s="15">
         <v>1224791</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>1409203</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>1598580</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>1777074</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>2740270</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>9908575</v>
+      </c>
+      <c r="E18" s="17">
+        <v>13164808</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15133683</v>
+      </c>
+      <c r="G18" s="17">
+        <v>15140717</v>
+      </c>
+      <c r="H18" s="17">
+        <v>17292238</v>
+      </c>
+      <c r="I18" s="17">
         <v>16836017</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>19316932</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>17269709</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>20169829</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>24805030</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1223,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>552264</v>
+      </c>
+      <c r="E20" s="15">
+        <v>319544</v>
+      </c>
+      <c r="F20" s="15">
+        <v>456869</v>
+      </c>
+      <c r="G20" s="15">
+        <v>319544</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1147098</v>
+      </c>
+      <c r="I20" s="15">
         <v>528178</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>528178</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>2406699</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>3678659</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>2406698</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1045,81 +1287,141 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
         <v>662825</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>866660</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>866660</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1860955</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2006435</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2378936</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2494565</v>
+      </c>
+      <c r="H22" s="15">
+        <v>2650940</v>
+      </c>
+      <c r="I22" s="15">
         <v>2732480</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>3300378</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>3279883</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>3292447</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>3319803</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>16466</v>
+      </c>
+      <c r="E23" s="11">
+        <v>18749</v>
+      </c>
+      <c r="F23" s="11">
+        <v>26704</v>
+      </c>
+      <c r="G23" s="11">
+        <v>26290</v>
+      </c>
+      <c r="H23" s="11">
+        <v>28795</v>
+      </c>
+      <c r="I23" s="11">
         <v>28361</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>27944</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>28225</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>27690</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>26700</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>2429685</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2344728</v>
+      </c>
+      <c r="F26" s="17">
+        <v>2862509</v>
+      </c>
+      <c r="G26" s="17">
+        <v>2840399</v>
+      </c>
+      <c r="H26" s="17">
+        <v>3826833</v>
+      </c>
+      <c r="I26" s="17">
         <v>3289019</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>3856500</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>6377632</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>7865456</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>6619861</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>12338260</v>
+      </c>
+      <c r="E27" s="19">
+        <v>15509536</v>
+      </c>
+      <c r="F27" s="19">
+        <v>17996192</v>
+      </c>
+      <c r="G27" s="19">
+        <v>17981116</v>
+      </c>
+      <c r="H27" s="19">
+        <v>21119071</v>
+      </c>
+      <c r="I27" s="19">
         <v>20125036</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>23173432</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>23647341</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>28035285</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>31424891</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,52 +1537,87 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>1982199</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3706266</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4479869</v>
+      </c>
+      <c r="G29" s="15">
+        <v>4386059</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5341123</v>
+      </c>
+      <c r="I29" s="15">
         <v>4426796</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>5072864</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>5059166</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>6601920</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>8962503</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
@@ -1253,94 +1635,169 @@
       <c r="H31" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>185901</v>
+      </c>
+      <c r="E32" s="11">
+        <v>199550</v>
+      </c>
+      <c r="F32" s="11">
+        <v>155529</v>
+      </c>
+      <c r="G32" s="11">
+        <v>161557</v>
+      </c>
+      <c r="H32" s="11">
+        <v>214282</v>
+      </c>
+      <c r="I32" s="11">
         <v>114820</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>102254</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>19694</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>29649</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>128979</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>2300000</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2167275</v>
+      </c>
+      <c r="F33" s="15">
+        <v>991117</v>
+      </c>
+      <c r="G33" s="15">
+        <v>983946</v>
+      </c>
+      <c r="H33" s="15">
+        <v>2027707</v>
+      </c>
+      <c r="I33" s="15">
         <v>1991159</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>311296</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>309669</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>2047674</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>1779005</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>4318379</v>
+      </c>
+      <c r="E34" s="11">
+        <v>5221647</v>
+      </c>
+      <c r="F34" s="11">
+        <v>6577241</v>
+      </c>
+      <c r="G34" s="11">
+        <v>6575574</v>
+      </c>
+      <c r="H34" s="11">
+        <v>7141873</v>
+      </c>
+      <c r="I34" s="11">
         <v>7627666</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>8302390</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>8482215</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>8738322</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>9173922</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>73190</v>
+      </c>
+      <c r="E35" s="15">
+        <v>67335</v>
+      </c>
+      <c r="F35" s="15">
+        <v>144435</v>
+      </c>
+      <c r="G35" s="15">
+        <v>212526</v>
+      </c>
+      <c r="H35" s="15">
+        <v>334026</v>
+      </c>
+      <c r="I35" s="15">
         <v>198741</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
         <v>222012</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>366336</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>406685</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>1029437</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>8859669</v>
+      </c>
+      <c r="E37" s="17">
+        <v>11362073</v>
+      </c>
+      <c r="F37" s="17">
+        <v>12348191</v>
+      </c>
+      <c r="G37" s="17">
+        <v>12319662</v>
+      </c>
+      <c r="H37" s="17">
+        <v>15059011</v>
+      </c>
+      <c r="I37" s="17">
         <v>14359182</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>14010816</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>14237080</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>17824250</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>21073846</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1887,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>2361111</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>2319444</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>2324523</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>2275844</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>81254</v>
+      </c>
+      <c r="E41" s="15">
+        <v>85300</v>
+      </c>
+      <c r="F41" s="15">
+        <v>87366</v>
+      </c>
+      <c r="G41" s="15">
+        <v>127172</v>
+      </c>
+      <c r="H41" s="15">
+        <v>129804</v>
+      </c>
+      <c r="I41" s="15">
         <v>134304</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>139607</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>224323</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>225629</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>228559</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>81254</v>
+      </c>
+      <c r="E42" s="19">
+        <v>85300</v>
+      </c>
+      <c r="F42" s="19">
+        <v>87366</v>
+      </c>
+      <c r="G42" s="19">
+        <v>127172</v>
+      </c>
+      <c r="H42" s="19">
+        <v>129804</v>
+      </c>
+      <c r="I42" s="19">
         <v>134304</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>2500718</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>2543767</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>2550152</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>2504403</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>8940923</v>
+      </c>
+      <c r="E43" s="17">
+        <v>11447373</v>
+      </c>
+      <c r="F43" s="17">
+        <v>12435557</v>
+      </c>
+      <c r="G43" s="17">
+        <v>12446834</v>
+      </c>
+      <c r="H43" s="17">
+        <v>15188815</v>
+      </c>
+      <c r="I43" s="17">
         <v>14493486</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>16511534</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>16780847</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>20374402</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>23578249</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
         <v>1000000</v>
       </c>
       <c r="E45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="J45" s="15">
         <v>2000000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>2000000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>2000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>2000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,31 +2155,61 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>981265</v>
+      </c>
+      <c r="I47" s="15">
         <v>981288</v>
       </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
         <v>100000</v>
       </c>
       <c r="E50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>100000</v>
+      </c>
+      <c r="J50" s="11">
         <v>200000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>200000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>200000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>200000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>2297337</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2962163</v>
+      </c>
+      <c r="F56" s="11">
+        <v>4460635</v>
+      </c>
+      <c r="G56" s="11">
+        <v>4434282</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3848991</v>
+      </c>
+      <c r="I56" s="11">
         <v>3550262</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>4461898</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>4666494</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>5460883</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>5646642</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>3397337</v>
+      </c>
+      <c r="E57" s="17">
+        <v>4062163</v>
+      </c>
+      <c r="F57" s="17">
+        <v>5560635</v>
+      </c>
+      <c r="G57" s="17">
+        <v>5534282</v>
+      </c>
+      <c r="H57" s="17">
+        <v>5930256</v>
+      </c>
+      <c r="I57" s="17">
         <v>5631550</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>6661898</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>6866494</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>7660883</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>7846642</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>12338260</v>
+      </c>
+      <c r="E58" s="19">
+        <v>15509536</v>
+      </c>
+      <c r="F58" s="19">
+        <v>17996192</v>
+      </c>
+      <c r="G58" s="19">
+        <v>17981116</v>
+      </c>
+      <c r="H58" s="19">
+        <v>21119071</v>
+      </c>
+      <c r="I58" s="19">
         <v>20125036</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>23173432</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>23647341</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>28035285</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>31424891</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
+++ b/database/industries/shoyande/gharn/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF5CD0-6695-4E6F-8FEF-D51D8D327D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7744A1-D2AD-4296-BA3F-83CB46A612D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-09-26 (2)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-11-02 (7)</t>
+    <t>1402-02-23 (8)</t>
   </si>
   <si>
     <t>1401-04-29</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-02</t>
+  </si>
+  <si>
+    <t>1402-02-23</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,187 +952,187 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>225133</v>
+        <v>517858</v>
       </c>
       <c r="E12" s="15">
-        <v>517858</v>
+        <v>366420</v>
       </c>
       <c r="F12" s="15">
-        <v>366420</v>
+        <v>286042</v>
       </c>
       <c r="G12" s="15">
-        <v>286042</v>
+        <v>573634</v>
       </c>
       <c r="H12" s="15">
-        <v>573634</v>
+        <v>475987</v>
       </c>
       <c r="I12" s="15">
-        <v>475987</v>
+        <v>1868143</v>
       </c>
       <c r="J12" s="15">
-        <v>1868143</v>
+        <v>415393</v>
       </c>
       <c r="K12" s="15">
-        <v>415393</v>
+        <v>283975</v>
       </c>
       <c r="L12" s="15">
-        <v>283975</v>
+        <v>678035</v>
       </c>
       <c r="M12" s="15">
-        <v>678035</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5682077</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>446043</v>
+        <v>322949</v>
       </c>
       <c r="E13" s="11">
-        <v>322949</v>
+        <v>318609</v>
       </c>
       <c r="F13" s="11">
-        <v>318609</v>
+        <v>352206</v>
       </c>
       <c r="G13" s="11">
-        <v>352206</v>
+        <v>315917</v>
       </c>
       <c r="H13" s="11">
-        <v>315917</v>
+        <v>315189</v>
       </c>
       <c r="I13" s="11">
-        <v>315189</v>
+        <v>261339</v>
       </c>
       <c r="J13" s="11">
-        <v>261339</v>
+        <v>307450</v>
       </c>
       <c r="K13" s="11">
-        <v>307450</v>
+        <v>272224</v>
       </c>
       <c r="L13" s="11">
-        <v>272224</v>
+        <v>255106</v>
       </c>
       <c r="M13" s="11">
-        <v>255106</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>346733</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>4454502</v>
+        <v>5442111</v>
       </c>
       <c r="E14" s="15">
-        <v>5442111</v>
+        <v>8320019</v>
       </c>
       <c r="F14" s="15">
-        <v>8320019</v>
+        <v>7313453</v>
       </c>
       <c r="G14" s="15">
-        <v>7313453</v>
+        <v>9983028</v>
       </c>
       <c r="H14" s="15">
-        <v>9983028</v>
+        <v>9828553</v>
       </c>
       <c r="I14" s="15">
-        <v>9828553</v>
+        <v>11169725</v>
       </c>
       <c r="J14" s="15">
-        <v>11169725</v>
+        <v>9669726</v>
       </c>
       <c r="K14" s="15">
-        <v>9669726</v>
+        <v>12498860</v>
       </c>
       <c r="L14" s="15">
-        <v>12498860</v>
+        <v>14783315</v>
       </c>
       <c r="M14" s="15">
-        <v>14783315</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17358792</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>3501620</v>
+        <v>4119965</v>
       </c>
       <c r="E15" s="11">
-        <v>4119965</v>
+        <v>5060743</v>
       </c>
       <c r="F15" s="11">
-        <v>5060743</v>
+        <v>4923594</v>
       </c>
       <c r="G15" s="11">
-        <v>4923594</v>
+        <v>5310052</v>
       </c>
       <c r="H15" s="11">
-        <v>5310052</v>
+        <v>4991497</v>
       </c>
       <c r="I15" s="11">
-        <v>4991497</v>
+        <v>4608522</v>
       </c>
       <c r="J15" s="11">
-        <v>4608522</v>
+        <v>5278560</v>
       </c>
       <c r="K15" s="11">
-        <v>5278560</v>
+        <v>5337696</v>
       </c>
       <c r="L15" s="11">
-        <v>5337696</v>
+        <v>6348304</v>
       </c>
       <c r="M15" s="11">
-        <v>6348304</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6407946</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>1281277</v>
+        <v>2761925</v>
       </c>
       <c r="E16" s="15">
-        <v>2761925</v>
+        <v>1067892</v>
       </c>
       <c r="F16" s="15">
-        <v>1067892</v>
+        <v>2265422</v>
       </c>
       <c r="G16" s="15">
-        <v>2265422</v>
+        <v>1109607</v>
       </c>
       <c r="H16" s="15">
-        <v>1109607</v>
+        <v>1224791</v>
       </c>
       <c r="I16" s="15">
-        <v>1224791</v>
+        <v>1409203</v>
       </c>
       <c r="J16" s="15">
-        <v>1409203</v>
+        <v>1598580</v>
       </c>
       <c r="K16" s="15">
-        <v>1598580</v>
+        <v>1777074</v>
       </c>
       <c r="L16" s="15">
-        <v>1777074</v>
+        <v>2740270</v>
       </c>
       <c r="M16" s="15">
-        <v>2740270</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2550680</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,43 +1168,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>9908575</v>
+        <v>13164808</v>
       </c>
       <c r="E18" s="17">
-        <v>13164808</v>
+        <v>15133683</v>
       </c>
       <c r="F18" s="17">
-        <v>15133683</v>
+        <v>15140717</v>
       </c>
       <c r="G18" s="17">
-        <v>15140717</v>
+        <v>17292238</v>
       </c>
       <c r="H18" s="17">
-        <v>17292238</v>
+        <v>16836017</v>
       </c>
       <c r="I18" s="17">
-        <v>16836017</v>
+        <v>19316932</v>
       </c>
       <c r="J18" s="17">
-        <v>19316932</v>
+        <v>17269709</v>
       </c>
       <c r="K18" s="17">
-        <v>17269709</v>
+        <v>20169829</v>
       </c>
       <c r="L18" s="17">
-        <v>20169829</v>
+        <v>24805030</v>
       </c>
       <c r="M18" s="17">
-        <v>24805030</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>32346228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,43 +1240,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>552264</v>
+        <v>319544</v>
       </c>
       <c r="E20" s="15">
+        <v>456869</v>
+      </c>
+      <c r="F20" s="15">
         <v>319544</v>
       </c>
-      <c r="F20" s="15">
-        <v>456869</v>
-      </c>
       <c r="G20" s="15">
-        <v>319544</v>
+        <v>1147098</v>
       </c>
       <c r="H20" s="15">
-        <v>1147098</v>
+        <v>528178</v>
       </c>
       <c r="I20" s="15">
-        <v>528178</v>
+        <v>1146909</v>
       </c>
       <c r="J20" s="15">
-        <v>528178</v>
+        <v>2406699</v>
       </c>
       <c r="K20" s="15">
-        <v>2406699</v>
+        <v>3678659</v>
       </c>
       <c r="L20" s="15">
-        <v>3678659</v>
+        <v>2406698</v>
       </c>
       <c r="M20" s="15">
-        <v>2406698</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3997872</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1299,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="11">
-        <v>0</v>
+        <v>662825</v>
       </c>
       <c r="K21" s="11">
-        <v>662825</v>
+        <v>866660</v>
       </c>
       <c r="L21" s="11">
         <v>866660</v>
@@ -1311,79 +1312,79 @@
         <v>866660</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1860955</v>
+        <v>2006435</v>
       </c>
       <c r="E22" s="15">
-        <v>2006435</v>
+        <v>2378936</v>
       </c>
       <c r="F22" s="15">
-        <v>2378936</v>
+        <v>2494565</v>
       </c>
       <c r="G22" s="15">
-        <v>2494565</v>
+        <v>2650940</v>
       </c>
       <c r="H22" s="15">
-        <v>2650940</v>
+        <v>2732480</v>
       </c>
       <c r="I22" s="15">
-        <v>2732480</v>
+        <v>3300378</v>
       </c>
       <c r="J22" s="15">
-        <v>3300378</v>
+        <v>3279883</v>
       </c>
       <c r="K22" s="15">
-        <v>3279883</v>
+        <v>3292447</v>
       </c>
       <c r="L22" s="15">
-        <v>3292447</v>
+        <v>3319803</v>
       </c>
       <c r="M22" s="15">
-        <v>3319803</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3581272</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>16466</v>
+        <v>18749</v>
       </c>
       <c r="E23" s="11">
-        <v>18749</v>
+        <v>26704</v>
       </c>
       <c r="F23" s="11">
-        <v>26704</v>
+        <v>26290</v>
       </c>
       <c r="G23" s="11">
-        <v>26290</v>
+        <v>28795</v>
       </c>
       <c r="H23" s="11">
-        <v>28795</v>
+        <v>28361</v>
       </c>
       <c r="I23" s="11">
-        <v>28361</v>
+        <v>27944</v>
       </c>
       <c r="J23" s="11">
-        <v>27944</v>
+        <v>28225</v>
       </c>
       <c r="K23" s="11">
-        <v>28225</v>
+        <v>27690</v>
       </c>
       <c r="L23" s="11">
-        <v>27690</v>
+        <v>26700</v>
       </c>
       <c r="M23" s="11">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>27462</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>2429685</v>
+        <v>2344728</v>
       </c>
       <c r="E26" s="17">
-        <v>2344728</v>
+        <v>2862509</v>
       </c>
       <c r="F26" s="17">
-        <v>2862509</v>
+        <v>2840399</v>
       </c>
       <c r="G26" s="17">
-        <v>2840399</v>
+        <v>3826833</v>
       </c>
       <c r="H26" s="17">
-        <v>3826833</v>
+        <v>3289019</v>
       </c>
       <c r="I26" s="17">
-        <v>3289019</v>
+        <v>4475231</v>
       </c>
       <c r="J26" s="17">
-        <v>3856500</v>
+        <v>6377632</v>
       </c>
       <c r="K26" s="17">
-        <v>6377632</v>
+        <v>7865456</v>
       </c>
       <c r="L26" s="17">
-        <v>7865456</v>
+        <v>6619861</v>
       </c>
       <c r="M26" s="17">
-        <v>6619861</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8473266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>12338260</v>
+        <v>15509536</v>
       </c>
       <c r="E27" s="19">
-        <v>15509536</v>
+        <v>17996192</v>
       </c>
       <c r="F27" s="19">
-        <v>17996192</v>
+        <v>17981116</v>
       </c>
       <c r="G27" s="19">
-        <v>17981116</v>
+        <v>21119071</v>
       </c>
       <c r="H27" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="I27" s="19">
-        <v>20125036</v>
+        <v>23792163</v>
       </c>
       <c r="J27" s="19">
-        <v>23173432</v>
+        <v>23647341</v>
       </c>
       <c r="K27" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="L27" s="19">
-        <v>28035285</v>
+        <v>31424891</v>
       </c>
       <c r="M27" s="19">
-        <v>31424891</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40819494</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1982199</v>
+        <v>3706266</v>
       </c>
       <c r="E29" s="15">
-        <v>3706266</v>
+        <v>4479869</v>
       </c>
       <c r="F29" s="15">
-        <v>4479869</v>
+        <v>4386059</v>
       </c>
       <c r="G29" s="15">
-        <v>4386059</v>
+        <v>5341123</v>
       </c>
       <c r="H29" s="15">
-        <v>5341123</v>
+        <v>4426796</v>
       </c>
       <c r="I29" s="15">
-        <v>4426796</v>
+        <v>5072864</v>
       </c>
       <c r="J29" s="15">
-        <v>5072864</v>
+        <v>5059166</v>
       </c>
       <c r="K29" s="15">
-        <v>5059166</v>
+        <v>6601920</v>
       </c>
       <c r="L29" s="15">
-        <v>6601920</v>
+        <v>8962503</v>
       </c>
       <c r="M29" s="15">
-        <v>8962503</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10977719</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1648,154 +1649,154 @@
         <v>0</v>
       </c>
       <c r="M31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>185901</v>
+        <v>199550</v>
       </c>
       <c r="E32" s="11">
-        <v>199550</v>
+        <v>155529</v>
       </c>
       <c r="F32" s="11">
-        <v>155529</v>
+        <v>161557</v>
       </c>
       <c r="G32" s="11">
-        <v>161557</v>
+        <v>214282</v>
       </c>
       <c r="H32" s="11">
-        <v>214282</v>
+        <v>114820</v>
       </c>
       <c r="I32" s="11">
-        <v>114820</v>
+        <v>102254</v>
       </c>
       <c r="J32" s="11">
-        <v>102254</v>
+        <v>19694</v>
       </c>
       <c r="K32" s="11">
-        <v>19694</v>
+        <v>29649</v>
       </c>
       <c r="L32" s="11">
-        <v>29649</v>
+        <v>128979</v>
       </c>
       <c r="M32" s="11">
-        <v>128979</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>52040</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2300000</v>
+        <v>2167275</v>
       </c>
       <c r="E33" s="15">
-        <v>2167275</v>
+        <v>991117</v>
       </c>
       <c r="F33" s="15">
-        <v>991117</v>
+        <v>983946</v>
       </c>
       <c r="G33" s="15">
-        <v>983946</v>
+        <v>2027707</v>
       </c>
       <c r="H33" s="15">
-        <v>2027707</v>
+        <v>1991159</v>
       </c>
       <c r="I33" s="15">
-        <v>1991159</v>
+        <v>311296</v>
       </c>
       <c r="J33" s="15">
-        <v>311296</v>
+        <v>309669</v>
       </c>
       <c r="K33" s="15">
-        <v>309669</v>
+        <v>2047674</v>
       </c>
       <c r="L33" s="15">
-        <v>2047674</v>
+        <v>1779005</v>
       </c>
       <c r="M33" s="15">
-        <v>1779005</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>820132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>4318379</v>
+        <v>5221647</v>
       </c>
       <c r="E34" s="11">
-        <v>5221647</v>
+        <v>6577241</v>
       </c>
       <c r="F34" s="11">
-        <v>6577241</v>
+        <v>6575574</v>
       </c>
       <c r="G34" s="11">
-        <v>6575574</v>
+        <v>7141873</v>
       </c>
       <c r="H34" s="11">
-        <v>7141873</v>
+        <v>7627666</v>
       </c>
       <c r="I34" s="11">
-        <v>7627666</v>
+        <v>8302390</v>
       </c>
       <c r="J34" s="11">
-        <v>8302390</v>
+        <v>8482215</v>
       </c>
       <c r="K34" s="11">
-        <v>8482215</v>
+        <v>8738322</v>
       </c>
       <c r="L34" s="11">
-        <v>8738322</v>
+        <v>9173922</v>
       </c>
       <c r="M34" s="11">
-        <v>9173922</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9180918</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>73190</v>
+        <v>67335</v>
       </c>
       <c r="E35" s="15">
-        <v>67335</v>
+        <v>144435</v>
       </c>
       <c r="F35" s="15">
-        <v>144435</v>
+        <v>212526</v>
       </c>
       <c r="G35" s="15">
-        <v>212526</v>
+        <v>334026</v>
       </c>
       <c r="H35" s="15">
-        <v>334026</v>
+        <v>198741</v>
       </c>
       <c r="I35" s="15">
-        <v>198741</v>
+        <v>222012</v>
       </c>
       <c r="J35" s="15">
-        <v>222012</v>
+        <v>366336</v>
       </c>
       <c r="K35" s="15">
-        <v>366336</v>
+        <v>406685</v>
       </c>
       <c r="L35" s="15">
-        <v>406685</v>
+        <v>1029437</v>
       </c>
       <c r="M35" s="15">
-        <v>1029437</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421647</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>8859669</v>
+        <v>11362073</v>
       </c>
       <c r="E37" s="17">
-        <v>11362073</v>
+        <v>12348191</v>
       </c>
       <c r="F37" s="17">
-        <v>12348191</v>
+        <v>12319662</v>
       </c>
       <c r="G37" s="17">
-        <v>12319662</v>
+        <v>15059011</v>
       </c>
       <c r="H37" s="17">
-        <v>15059011</v>
+        <v>14359182</v>
       </c>
       <c r="I37" s="17">
-        <v>14359182</v>
+        <v>14010816</v>
       </c>
       <c r="J37" s="17">
-        <v>14010816</v>
+        <v>14237080</v>
       </c>
       <c r="K37" s="17">
-        <v>14237080</v>
+        <v>17824250</v>
       </c>
       <c r="L37" s="17">
-        <v>17824250</v>
+        <v>21073846</v>
       </c>
       <c r="M37" s="17">
-        <v>21073846</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21461706</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1960,130 +1961,130 @@
         <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>2361111</v>
       </c>
       <c r="J40" s="11">
-        <v>2361111</v>
+        <v>2319444</v>
       </c>
       <c r="K40" s="11">
-        <v>2319444</v>
+        <v>2324523</v>
       </c>
       <c r="L40" s="11">
-        <v>2324523</v>
+        <v>2275844</v>
       </c>
       <c r="M40" s="11">
-        <v>2275844</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7227166</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>81254</v>
+        <v>85300</v>
       </c>
       <c r="E41" s="15">
-        <v>85300</v>
+        <v>87366</v>
       </c>
       <c r="F41" s="15">
-        <v>87366</v>
+        <v>127172</v>
       </c>
       <c r="G41" s="15">
-        <v>127172</v>
+        <v>129804</v>
       </c>
       <c r="H41" s="15">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="I41" s="15">
-        <v>134304</v>
+        <v>139607</v>
       </c>
       <c r="J41" s="15">
-        <v>139607</v>
+        <v>224323</v>
       </c>
       <c r="K41" s="15">
-        <v>224323</v>
+        <v>225629</v>
       </c>
       <c r="L41" s="15">
-        <v>225629</v>
+        <v>228559</v>
       </c>
       <c r="M41" s="15">
-        <v>228559</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>243677</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>81254</v>
+        <v>85300</v>
       </c>
       <c r="E42" s="19">
-        <v>85300</v>
+        <v>87366</v>
       </c>
       <c r="F42" s="19">
-        <v>87366</v>
+        <v>127172</v>
       </c>
       <c r="G42" s="19">
-        <v>127172</v>
+        <v>129804</v>
       </c>
       <c r="H42" s="19">
-        <v>129804</v>
+        <v>134304</v>
       </c>
       <c r="I42" s="19">
-        <v>134304</v>
+        <v>2500718</v>
       </c>
       <c r="J42" s="19">
-        <v>2500718</v>
+        <v>2543767</v>
       </c>
       <c r="K42" s="19">
-        <v>2543767</v>
+        <v>2550152</v>
       </c>
       <c r="L42" s="19">
-        <v>2550152</v>
+        <v>2504403</v>
       </c>
       <c r="M42" s="19">
-        <v>2504403</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7470843</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>8940923</v>
+        <v>11447373</v>
       </c>
       <c r="E43" s="17">
-        <v>11447373</v>
+        <v>12435557</v>
       </c>
       <c r="F43" s="17">
-        <v>12435557</v>
+        <v>12446834</v>
       </c>
       <c r="G43" s="17">
-        <v>12446834</v>
+        <v>15188815</v>
       </c>
       <c r="H43" s="17">
-        <v>15188815</v>
+        <v>14493486</v>
       </c>
       <c r="I43" s="17">
-        <v>14493486</v>
+        <v>16511534</v>
       </c>
       <c r="J43" s="17">
-        <v>16511534</v>
+        <v>16780847</v>
       </c>
       <c r="K43" s="17">
-        <v>16780847</v>
+        <v>20374402</v>
       </c>
       <c r="L43" s="17">
-        <v>20374402</v>
+        <v>23578249</v>
       </c>
       <c r="M43" s="17">
-        <v>23578249</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>28932549</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>1000000</v>
       </c>
       <c r="I45" s="15">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J45" s="15">
         <v>2000000</v>
@@ -2132,10 +2133,10 @@
         <v>2000000</v>
       </c>
       <c r="M45" s="15">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2186,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>981265</v>
       </c>
       <c r="H47" s="15">
-        <v>981265</v>
+        <v>981288</v>
       </c>
       <c r="I47" s="15">
-        <v>981288</v>
+        <v>0</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>100000</v>
       </c>
       <c r="I50" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="J50" s="11">
         <v>200000</v>
@@ -2312,10 +2313,10 @@
         <v>200000</v>
       </c>
       <c r="M50" s="11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2297337</v>
+        <v>2962163</v>
       </c>
       <c r="E56" s="11">
-        <v>2962163</v>
+        <v>4460635</v>
       </c>
       <c r="F56" s="11">
-        <v>4460635</v>
+        <v>4434282</v>
       </c>
       <c r="G56" s="11">
-        <v>4434282</v>
+        <v>3848991</v>
       </c>
       <c r="H56" s="11">
-        <v>3848991</v>
+        <v>3550262</v>
       </c>
       <c r="I56" s="11">
-        <v>3550262</v>
+        <v>5080629</v>
       </c>
       <c r="J56" s="11">
-        <v>4461898</v>
+        <v>4666494</v>
       </c>
       <c r="K56" s="11">
-        <v>4666494</v>
+        <v>5460883</v>
       </c>
       <c r="L56" s="11">
-        <v>5460883</v>
+        <v>5646642</v>
       </c>
       <c r="M56" s="11">
-        <v>5646642</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7486945</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3397337</v>
+        <v>4062163</v>
       </c>
       <c r="E57" s="17">
-        <v>4062163</v>
+        <v>5560635</v>
       </c>
       <c r="F57" s="17">
-        <v>5560635</v>
+        <v>5534282</v>
       </c>
       <c r="G57" s="17">
-        <v>5534282</v>
+        <v>5930256</v>
       </c>
       <c r="H57" s="17">
-        <v>5930256</v>
+        <v>5631550</v>
       </c>
       <c r="I57" s="17">
-        <v>5631550</v>
+        <v>7280629</v>
       </c>
       <c r="J57" s="17">
-        <v>6661898</v>
+        <v>6866494</v>
       </c>
       <c r="K57" s="17">
-        <v>6866494</v>
+        <v>7660883</v>
       </c>
       <c r="L57" s="17">
-        <v>7660883</v>
+        <v>7846642</v>
       </c>
       <c r="M57" s="17">
-        <v>7846642</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11886945</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>12338260</v>
+        <v>15509536</v>
       </c>
       <c r="E58" s="19">
-        <v>15509536</v>
+        <v>17996192</v>
       </c>
       <c r="F58" s="19">
-        <v>17996192</v>
+        <v>17981116</v>
       </c>
       <c r="G58" s="19">
-        <v>17981116</v>
+        <v>21119071</v>
       </c>
       <c r="H58" s="19">
-        <v>21119071</v>
+        <v>20125036</v>
       </c>
       <c r="I58" s="19">
-        <v>20125036</v>
+        <v>23792163</v>
       </c>
       <c r="J58" s="19">
-        <v>23173432</v>
+        <v>23647341</v>
       </c>
       <c r="K58" s="19">
-        <v>23647341</v>
+        <v>28035285</v>
       </c>
       <c r="L58" s="19">
-        <v>28035285</v>
+        <v>31424891</v>
       </c>
       <c r="M58" s="19">
-        <v>31424891</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40819494</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
